--- a/biology/Botanique/Parc_national_naturel_de_Zatcharovany_Krai/Parc_national_naturel_de_Zatcharovany_Krai.xlsx
+++ b/biology/Botanique/Parc_national_naturel_de_Zatcharovany_Krai/Parc_national_naturel_de_Zatcharovany_Krai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc national naturel de Zatcharovany Krai (en ukrainien : Зачарований край) est un parc national situé dans l’oblast de Transcarpatie en Ukraine.
-D'une taille de 6 101 hectares il est classé en 2009. Il fait partie des forêts primaires de hêtres des Carpates et d'autres régions d'Europe qui sont sur la liste de l'UNESCO[2] et regroupe les sites : Irchava de 94 hectares[3],  Velykyi Dil de 1 164 hectares[4].
+D'une taille de 6 101 hectares il est classé en 2009. Il fait partie des forêts primaires de hêtres des Carpates et d'autres régions d'Europe qui sont sur la liste de l'UNESCO et regroupe les sites : Irchava de 94 hectares,  Velykyi Dil de 1 164 hectares.
 			Chute d'eau de Kamianka.
 			chutes d'eau.
 </t>
